--- a/resource/40.design/440.development/[Saturn]449crawling_insert/26루테인.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/26루테인.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rydga\OneDrive\바탕 화면\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FA6071-1DF7-4AF8-B629-446D1297FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="0" windowWidth="13125" windowHeight="15600" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22140" windowHeight="7110" tabRatio="745"/>
   </bookViews>
   <sheets>
     <sheet name="TB_SLE" sheetId="6" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TB_PRD!$A$2:$O$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TB_SLE_IMG!$A$2:$O$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -299,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
@@ -719,11 +718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -789,10 +788,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="C3" s="6">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -811,11 +810,11 @@
       </c>
       <c r="I3" s="10">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -834,15 +833,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (169, 169, '솔가 루테인 40mg 30 소프트젤 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (227, 227, '솔가 루테인 40mg 30 소프트젤 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="C4" s="6">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -861,11 +860,11 @@
       </c>
       <c r="I4" s="10">
         <f t="shared" ref="I4:I21" ca="1" si="0">RANDBETWEEN(1, 5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J21" ca="1" si="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -884,15 +883,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P21" ca="1" si="2">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (170, 170, '솔가 루테인 40mg 30 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 2, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (228, 228, '솔가 루테인 40mg 30 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 2, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="C5" s="6">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -911,11 +910,11 @@
       </c>
       <c r="I5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -934,15 +933,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (171, 171, '네이처스웨이 징크골드 아이즈 빌베리 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000062/1000000062_main_034.jpg', 39600, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 3, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (229, 229, '네이처스웨이 징크골드 아이즈 빌베리 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000062/1000000062_main_034.jpg', 39600, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 3, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="C6" s="6">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -961,11 +960,11 @@
       </c>
       <c r="I6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -984,15 +983,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (172, 172, '나우푸드 루테인 20mg 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 4, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (230, 230, '나우푸드 루테인 20mg 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 4, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="C7" s="6">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -1015,7 +1014,7 @@
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -1034,15 +1033,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (173, 173, '자로우 루테인 20mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001159/1000001159_main_054.jpg', 16740, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 5, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (231, 231, '자로우 루테인 20mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001159/1000001159_main_054.jpg', 16740, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 5, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="C8" s="6">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1061,11 +1060,11 @@
       </c>
       <c r="I8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1084,15 +1083,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (174, 174, '나우푸드 루테인 지아잔틴 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/17/1000002840/1000002840_main_091.jpg', 24800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 6, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (232, 232, '나우푸드 루테인 지아잔틴 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/17/1000002840/1000002840_main_091.jpg', 24800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 6, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="C9" s="6">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1115,7 +1114,7 @@
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1134,15 +1133,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (175, 175, '노르딕내추럴스 오메가 비전 1460mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002162/1000002162_main_0100.jpg', 49500, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 7, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (233, 233, '노르딕내추럴스 오메가 비전 1460mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002162/1000002162_main_0100.jpg', 49500, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 7, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="C10" s="6">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1165,7 +1164,7 @@
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
@@ -1184,15 +1183,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (176, 176, '컨트리라이프 루테인 20mg 60소프트겔', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000424/1000000424_main_046.jpg', 29900, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 8, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (234, 234, '컨트리라이프 루테인 20mg 60소프트겔', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000424/1000000424_main_046.jpg', 29900, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 8, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="C11" s="6">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1211,11 +1210,11 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1234,15 +1233,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (177, 177, '솔가 루테인 20mg 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002144/1000002144_main_035.jpg', 29500, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 9, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (235, 235, '솔가 루테인 20mg 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002144/1000002144_main_035.jpg', 29500, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 9, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="C12" s="6">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1261,11 +1260,11 @@
       </c>
       <c r="I12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
@@ -1284,15 +1283,15 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (178, 178, '자로우 블랙커런트&amp;루테인 복합제, 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001163/1000001163_main_057.jpg', 27900, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 10, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (236, 236, '자로우 블랙커런트&amp;루테인 복합제, 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001163/1000001163_main_057.jpg', 27900, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 10, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="C13" s="6">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1311,11 +1310,11 @@
       </c>
       <c r="I13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>23</v>
@@ -1334,15 +1333,15 @@
       </c>
       <c r="P13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (179, 179, '나우푸드 루테인 10mg 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001208/1000001208_main_086.jpg', 22000, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 11, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (237, 237, '나우푸드 루테인 10mg 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001208/1000001208_main_086.jpg', 22000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 11, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="C14" s="6">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -1361,11 +1360,11 @@
       </c>
       <c r="I14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>23</v>
@@ -1384,15 +1383,15 @@
       </c>
       <c r="P14" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (180, 180, '[유통기한임박상품] 솔가 루테인 40mg 30 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/08/35/1000003049/1000000538_main_085.jpg', 15930, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 12, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (238, 238, '[유통기한임박상품] 솔가 루테인 40mg 30 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/08/35/1000003049/1000000538_main_085.jpg', 15930, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 12, NULL, NULL); </v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="C15" s="6">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -1411,11 +1410,11 @@
       </c>
       <c r="I15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>23</v>
@@ -1434,15 +1433,15 @@
       </c>
       <c r="P15" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (181, 181, '네이처스웨이 비전 빌베리 루테인 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/28/1000001187/1000001187_main_058.jpg', 24600, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 13, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (239, 239, '네이처스웨이 비전 빌베리 루테인 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/28/1000001187/1000001187_main_058.jpg', 24600, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 13, NULL, NULL); </v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="C16" s="6">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -1465,7 +1464,7 @@
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>23</v>
@@ -1484,15 +1483,15 @@
       </c>
       <c r="P16" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (182, 182, '솔가 빌베리 징코 아이브라이트 컴플렉스 플러스 루테인 60캡슐 3병 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001075/1000001075_main_052.jpg', 74400, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 14, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (240, 240, '솔가 빌베리 징코 아이브라이트 컴플렉스 플러스 루테인 60캡슐 3병 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001075/1000001075_main_052.jpg', 74400, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 14, NULL, NULL); </v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="C17" s="6">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1511,11 +1510,11 @@
       </c>
       <c r="I17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>23</v>
@@ -1534,15 +1533,15 @@
       </c>
       <c r="P17" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (183, 183, '솔가 빌베리 징코 아이브라이트 컴플렉스 플러스 루테인 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000182/1000000182_main_022.jpg', 39500, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 15, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (241, 241, '솔가 빌베리 징코 아이브라이트 컴플렉스 플러스 루테인 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000182/1000000182_main_022.jpg', 39500, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 15, NULL, NULL); </v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="C18" s="6">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -1565,7 +1564,7 @@
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>23</v>
@@ -1584,15 +1583,15 @@
       </c>
       <c r="P18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (184, 184, '솔가 빌베리 징코 아이브라이트 컴플렉스 플러스 루테인 60캡슐 6병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001063/1000001063_main_013.jpg', 124800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 16, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (242, 242, '솔가 빌베리 징코 아이브라이트 컴플렉스 플러스 루테인 60캡슐 6병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001063/1000001063_main_013.jpg', 124800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 16, NULL, NULL); </v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="C19" s="6">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -1611,11 +1610,11 @@
       </c>
       <c r="I19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>23</v>
@@ -1634,15 +1633,15 @@
       </c>
       <c r="P19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (185, 185, '자로우 빌베리+그레이프스킨 폴리페놀 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001165/1000001165_main_026.jpg', 33000, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 17, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (243, 243, '자로우 빌베리+그레이프스킨 폴리페놀 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001165/1000001165_main_026.jpg', 33000, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 17, NULL, NULL); </v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="C20" s="6">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -1661,11 +1660,11 @@
       </c>
       <c r="I20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>23</v>
@@ -1684,15 +1683,15 @@
       </c>
       <c r="P20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (186, 186, '솔가 루테인 라이코펜 카로틴 컴플렉스 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000540/1000000540_main_059.jpg', 18300, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 18, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (244, 244, '솔가 루테인 라이코펜 카로틴 컴플렉스 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000540/1000000540_main_059.jpg', 18300, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 18, NULL, NULL); </v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="C21" s="6">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -1711,11 +1710,11 @@
       </c>
       <c r="I21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>23</v>
@@ -1734,7 +1733,7 @@
       </c>
       <c r="P21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (187, 187, '솔가 루테인 카로티노이드 콤플렉스 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000544/1433996297254s0.jpg', 17400, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 19, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (245, 245, '솔가 루테인 카로티노이드 콤플렉스 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000544/1433996297254s0.jpg', 17400, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 19, NULL, NULL); </v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1940,7 +1939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F091BC-945F-4AFC-A78F-31DD57129174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
